--- a/server/docs/노크 데이터베이스 정의서 초안_서버_v3.5.xlsx
+++ b/server/docs/노크 데이터베이스 정의서 초안_서버_v3.5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="15960" windowHeight="16260" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="225" windowWidth="15960" windowHeight="16260" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="276">
   <si>
     <t>표 1</t>
   </si>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>성격유형 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>공지/이벤트</t>
     </r>
@@ -828,10 +824,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>질문1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1223,10 +1215,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>유형 이미지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1279,10 +1267,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1427,6 +1411,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>question</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1499,10 +1487,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>INt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1:1번/2:2번</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1583,15 +1567,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>글쓴이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_id</t>
+    <t>school</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 풀이 텍스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형 아이콘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>uestion_img</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer1_img</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer2_img</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1953,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2173,6 +2201,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3670,7 +3701,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3778,7 +3809,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -3800,7 +3831,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D6" s="16">
         <v>11</v>
@@ -3822,7 +3853,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="5"/>
@@ -3894,7 +3925,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3943,72 +3974,76 @@
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>107</v>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="79">
         <v>45</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="24" t="s">
-        <v>108</v>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
@@ -4017,7 +4052,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="5"/>
@@ -4028,7 +4063,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -4040,7 +4075,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4048,7 +4083,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -4057,7 +4092,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4066,7 +4101,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
@@ -4141,7 +4176,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -4210,10 +4245,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4232,10 +4267,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="16">
         <v>4</v>
@@ -4245,17 +4280,17 @@
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="16">
         <v>11</v>
@@ -4274,10 +4309,10 @@
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" s="5">
         <v>4</v>
@@ -4287,7 +4322,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -4297,7 +4332,7 @@
         <v>93</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -4307,7 +4342,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>95</v>
@@ -4319,7 +4354,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4389,10 +4424,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -4437,7 +4472,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>87</v>
@@ -4447,22 +4482,22 @@
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="16">
         <v>11</v>
@@ -4479,10 +4514,10 @@
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4491,7 +4526,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -4500,7 +4535,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4509,7 +4544,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -4561,7 +4596,7 @@
       <selection activeCell="B5" sqref="B5"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4593,10 +4628,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -4641,7 +4676,7 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>87</v>
@@ -4657,13 +4692,13 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>270</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
@@ -4677,16 +4712,16 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -4695,16 +4730,16 @@
       <c r="H6" s="5"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4713,16 +4748,16 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4731,16 +4766,16 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -4749,7 +4784,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4813,10 +4848,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -4859,7 +4894,7 @@
     <row r="4" spans="1:12" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>32</v>
@@ -4877,13 +4912,13 @@
     <row r="5" spans="1:12" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4897,13 +4932,13 @@
     <row r="6" spans="1:12" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -4917,13 +4952,13 @@
     <row r="7" spans="1:12" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -4937,13 +4972,13 @@
     <row r="8" spans="1:12" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -4960,13 +4995,13 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4980,13 +5015,13 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>146</v>
-      </c>
       <c r="G10" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5000,13 +5035,13 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -5020,13 +5055,13 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -5040,13 +5075,13 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -5072,13 +5107,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV24"/>
+  <dimension ref="A1:IV25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5220,10 +5255,10 @@
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="41">
         <v>11</v>
@@ -5234,7 +5269,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
       <c r="J7" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -5283,10 +5318,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D10" s="41">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
@@ -5306,7 +5341,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="41">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -5326,7 +5361,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="41">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -5380,13 +5415,13 @@
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="D15" s="41">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
@@ -5440,7 +5475,7 @@
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>85</v>
@@ -5474,29 +5509,29 @@
       <c r="H19" s="71"/>
       <c r="I19" s="71"/>
       <c r="J19" s="42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="63" t="s">
         <v>127</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>128</v>
       </c>
       <c r="D20" s="41">
         <v>11</v>
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
       <c r="J20" s="63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -5505,7 +5540,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="71"/>
@@ -5520,10 +5555,10 @@
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="33"/>
       <c r="B22" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>113</v>
       </c>
       <c r="D22" s="41">
         <v>45</v>
@@ -5534,16 +5569,16 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
       <c r="J22" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>183</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>185</v>
       </c>
       <c r="D23" s="41">
         <v>11</v>
@@ -5554,16 +5589,16 @@
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
       <c r="J23" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D24" s="41">
         <v>11</v>
@@ -5574,7 +5609,27 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="41">
+        <v>45</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="42" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5638,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5634,10 +5689,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -5658,13 +5713,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>22</v>
@@ -5682,13 +5737,13 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>28</v>
@@ -5698,16 +5753,16 @@
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="66">
         <v>11</v>
@@ -5718,16 +5773,16 @@
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="63" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="66">
         <v>11</v>
@@ -5738,16 +5793,16 @@
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="63" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D7" s="66">
         <v>45</v>
@@ -5758,16 +5813,16 @@
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="63" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -5776,7 +5831,7 @@
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
@@ -6078,7 +6133,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6110,10 +6165,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -6158,37 +6213,37 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="D4" s="16">
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
@@ -6196,19 +6251,19 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
@@ -6216,19 +6271,19 @@
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="16">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
@@ -6236,16 +6291,16 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="37">
         <v>20</v>
@@ -6256,16 +6311,16 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="49"/>
       <c r="B9" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="52">
         <v>20</v>
@@ -6276,7 +6331,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -6604,7 +6659,7 @@
       <selection activeCell="D3" sqref="D3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6639,7 +6694,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -6660,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6687,10 +6742,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
@@ -6700,7 +6755,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
@@ -6709,10 +6764,10 @@
         <v>100</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>209</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
@@ -6720,19 +6775,19 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6" s="74">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
@@ -6740,27 +6795,25 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="20" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="29">
-        <v>45</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D7" s="29"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6769,7 +6822,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6820,10 +6873,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -6844,7 +6897,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>21</v>
@@ -6874,23 +6927,23 @@
         <v>87</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>84</v>
@@ -6904,7 +6957,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6931,7 +6984,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6963,10 +7016,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -6987,10 +7040,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>22</v>
@@ -7029,16 +7082,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5">
         <v>11</v>
@@ -7049,19 +7102,19 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7069,7 +7122,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7090,13 +7143,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7197,10 +7250,10 @@
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="16">
         <v>255</v>
@@ -7211,13 +7264,13 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -7231,13 +7284,13 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>84</v>
@@ -7251,16 +7304,16 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="41">
         <v>45</v>
@@ -7271,16 +7324,16 @@
       <c r="H8" s="41"/>
       <c r="I8" s="41"/>
       <c r="J8" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.45" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -7289,14 +7342,20 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.45" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="5">
+        <v>100</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -7304,13 +7363,49 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="5">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7328,7 +7423,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7359,10 +7454,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
@@ -7407,10 +7502,10 @@
     <row r="4" spans="1:10" ht="20.45" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" s="41">
         <v>11</v>
@@ -7423,13 +7518,13 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.45" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>27</v>
@@ -7445,16 +7540,16 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
       <c r="J5" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.45" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D6" s="16">
         <v>11</v>
@@ -7465,7 +7560,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.45" customHeight="1">
@@ -7474,10 +7569,10 @@
         <v>65</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="D7" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -7485,7 +7580,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.45" customHeight="1">
@@ -7494,7 +7589,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
